--- a/download.xlsx
+++ b/download.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Canada</t>
         </is>
       </c>
     </row>
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>90.09</v>
+        <v>50.22</v>
       </c>
       <c r="C2" t="n">
-        <v>98.91</v>
+        <v>41.14</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59.52</v>
+        <v>26.15</v>
       </c>
       <c r="C3" t="n">
-        <v>92.76000000000001</v>
+        <v>20.71</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.91</v>
+        <v>49.78</v>
       </c>
       <c r="C4" t="n">
-        <v>1.09</v>
+        <v>58.86</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>58.01</v>
+        <v>35.31</v>
       </c>
       <c r="C5" t="n">
-        <v>76.13</v>
+        <v>27.87</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18.75</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>60</v>
+        <v>7.02</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32.87</v>
+        <v>13.9</v>
       </c>
       <c r="C7" t="n">
-        <v>72.09</v>
+        <v>16.25</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>72.83</v>
+        <v>30.78</v>
       </c>
       <c r="C8" t="n">
-        <v>88.11</v>
+        <v>24.24</v>
       </c>
     </row>
   </sheetData>
